--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Pucheran/Jacques_Pucheran.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Pucheran/Jacques_Pucheran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Pucheran (2 juin 1817 - 13 janvier 1895) est un zoologiste et ornithologue français. Il est le neveu du naturaliste Augustin Serres, fils de Marie Serres et Pierre Pucheran.
 Il est conservateur au Muséum National d'Histoire Naturelle de Paris.
@@ -514,7 +526,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Jacques Pucheran » (voir la liste des auteurs).</t>
         </is>
